--- a/Output-Folder/GameSchedule.xlsx
+++ b/Output-Folder/GameSchedule.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="42">
-  <si>
-    <t xml:space="preserve">May  6 </t>
-  </si>
-  <si>
-    <t>3 pm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">May  3 </t>
+  </si>
+  <si>
+    <t>13:20:00</t>
   </si>
   <si>
     <t>Deziree Niki</t>
@@ -34,7 +34,7 @@
     <t>Edmé</t>
   </si>
   <si>
-    <t>7 pm</t>
+    <t>14:30:00</t>
   </si>
   <si>
     <t>Flavien</t>
@@ -49,76 +49,82 @@
     <t>Roswell</t>
   </si>
   <si>
-    <t xml:space="preserve">May  7 </t>
+    <t xml:space="preserve">May 10 </t>
+  </si>
+  <si>
+    <t>Sue Madelon</t>
+  </si>
+  <si>
+    <t>Skylar</t>
   </si>
   <si>
     <t>Craig</t>
   </si>
   <si>
-    <t>Sue Madelon</t>
-  </si>
-  <si>
-    <t>Skylar</t>
-  </si>
-  <si>
     <t>Miranda</t>
   </si>
   <si>
-    <t xml:space="preserve">May 13 </t>
+    <t xml:space="preserve">May 17 </t>
   </si>
   <si>
     <t>Becky</t>
   </si>
   <si>
+    <t xml:space="preserve">May 24 </t>
+  </si>
+  <si>
     <t>Thad Soan</t>
   </si>
   <si>
+    <t>Dory</t>
+  </si>
+  <si>
+    <t>Skye Annabelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun  7 </t>
+  </si>
+  <si>
     <t>Irvin</t>
   </si>
   <si>
-    <t xml:space="preserve">May 14 </t>
-  </si>
-  <si>
-    <t>Dory</t>
-  </si>
-  <si>
-    <t>Skye Annabelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun  3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun  4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jun 25 </t>
+    <t xml:space="preserve">Jun 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun 21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul  5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug  2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug  9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug 30 </t>
   </si>
   <si>
     <t>vs</t>
@@ -130,16 +136,16 @@
     <t>at</t>
   </si>
   <si>
+    <t>Mulligan Park</t>
+  </si>
+  <si>
+    <t>Ken Ross Park</t>
+  </si>
+  <si>
+    <t>Ultman Park</t>
+  </si>
+  <si>
     <t>Merry Mark</t>
-  </si>
-  <si>
-    <t>Ultman Park</t>
-  </si>
-  <si>
-    <t>Ken Ross Park</t>
-  </si>
-  <si>
-    <t>Mulligan Park</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,16 +555,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -569,16 +575,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -589,16 +595,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -609,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -637,16 +643,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -657,16 +663,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -677,16 +683,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -697,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -735,19 +741,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -755,19 +761,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -775,19 +781,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -795,19 +801,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -826,16 +832,16 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -846,16 +852,16 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -866,16 +872,16 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -886,16 +892,16 @@
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -924,19 +930,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -944,19 +950,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -964,19 +970,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -984,19 +990,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1012,19 +1018,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1032,19 +1038,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1052,19 +1058,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1075,16 +1081,16 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1097,7 +1103,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1113,19 +1119,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1133,16 +1139,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
         <v>40</v>
@@ -1153,19 +1159,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1173,19 +1179,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1201,19 +1207,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1221,19 +1227,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1241,19 +1247,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1264,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1286,7 +1292,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1302,19 +1308,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1322,19 +1328,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1342,19 +1348,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1362,16 +1368,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
         <v>41</v>
@@ -1390,19 +1396,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1410,19 +1416,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1430,19 +1436,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1450,19 +1456,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1475,7 +1481,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1491,19 +1497,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1511,19 +1517,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1531,19 +1537,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1551,19 +1557,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1579,19 +1585,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1599,19 +1605,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1619,19 +1625,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1639,19 +1645,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1680,19 +1686,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1700,19 +1706,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1720,16 +1726,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
         <v>41</v>
@@ -1740,19 +1746,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1768,19 +1774,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1788,19 +1794,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1808,16 +1814,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
         <v>40</v>
@@ -1828,19 +1834,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1869,16 +1875,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
@@ -1889,19 +1895,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1909,19 +1915,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1929,16 +1935,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
         <v>7</v>
       </c>
-      <c r="C92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
         <v>40</v>
@@ -1957,19 +1963,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1977,16 +1983,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
         <v>40</v>
@@ -2000,16 +2006,16 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2017,19 +2023,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2058,19 +2064,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E101" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2078,19 +2084,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2098,16 +2104,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
         <v>40</v>
@@ -2118,16 +2124,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
         <v>41</v>
@@ -2149,16 +2155,16 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2166,19 +2172,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2186,19 +2192,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2206,19 +2212,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2247,16 +2253,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
         <v>40</v>
@@ -2267,16 +2273,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E114" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
         <v>41</v>
@@ -2287,19 +2293,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2307,19 +2313,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2335,16 +2341,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" t="s">
+        <v>37</v>
+      </c>
+      <c r="D118" t="s">
         <v>14</v>
       </c>
-      <c r="C118" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
         <v>41</v>
@@ -2355,19 +2361,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2375,19 +2381,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2395,16 +2401,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
         <v>40</v>
@@ -2436,19 +2442,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2456,19 +2462,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2476,19 +2482,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2496,19 +2502,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2524,19 +2530,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2544,16 +2550,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
         <v>40</v>
@@ -2564,19 +2570,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2584,19 +2590,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2625,19 +2631,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2645,19 +2651,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2665,19 +2671,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2685,16 +2691,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
         <v>40</v>
@@ -2713,19 +2719,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2733,19 +2739,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2756,16 +2762,16 @@
         <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D144" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2776,16 +2782,16 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2814,19 +2820,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" t="s">
         <v>15</v>
       </c>
-      <c r="C149" t="s">
-        <v>35</v>
-      </c>
-      <c r="D149" t="s">
-        <v>22</v>
-      </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2834,16 +2840,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
         <v>40</v>
@@ -2854,19 +2860,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2874,19 +2880,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2902,19 +2908,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -2922,16 +2928,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
         <v>40</v>
@@ -2942,19 +2948,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -2962,19 +2968,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D157" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3003,19 +3009,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3023,19 +3029,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E162" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3043,19 +3049,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3063,19 +3069,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D164" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3091,19 +3097,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3111,19 +3117,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D167" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3131,16 +3137,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F168" t="s">
         <v>40</v>
@@ -3151,16 +3157,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D169" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F169" t="s">
         <v>41</v>
@@ -3192,19 +3198,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3212,19 +3218,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3232,19 +3238,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3252,19 +3258,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D176" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3280,19 +3286,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3300,19 +3306,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3320,16 +3326,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
         <v>41</v>
@@ -3340,19 +3346,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D181" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3381,19 +3387,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3401,19 +3407,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3421,19 +3427,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3441,19 +3447,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3469,19 +3475,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D190" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E190" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3489,19 +3495,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3509,19 +3515,417 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>37</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>39</v>
+      </c>
+      <c r="F192" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>37</v>
+      </c>
+      <c r="D193" t="s">
+        <v>38</v>
+      </c>
+      <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>37</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" t="s">
+        <v>39</v>
+      </c>
+      <c r="F197" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" t="s">
+        <v>21</v>
+      </c>
+      <c r="E198" t="s">
+        <v>39</v>
+      </c>
+      <c r="F198" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>37</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>39</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>37</v>
+      </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" t="s">
+        <v>39</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
         <v>2</v>
       </c>
-      <c r="C192" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="C202" t="s">
+        <v>37</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203" t="s">
+        <v>39</v>
+      </c>
+      <c r="F203" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>37</v>
+      </c>
+      <c r="D204" t="s">
+        <v>38</v>
+      </c>
+      <c r="E204" t="s">
+        <v>39</v>
+      </c>
+      <c r="F204" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>37</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>39</v>
+      </c>
+      <c r="F205" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
         <v>15</v>
       </c>
-      <c r="E192" t="s">
-        <v>37</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="C209" t="s">
+        <v>37</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>39</v>
+      </c>
+      <c r="F209" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" t="s">
+        <v>37</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>37</v>
+      </c>
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" t="s">
+        <v>39</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" t="s">
+        <v>37</v>
+      </c>
+      <c r="D212" t="s">
+        <v>21</v>
+      </c>
+      <c r="E212" t="s">
+        <v>39</v>
+      </c>
+      <c r="F212" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>24</v>
+      </c>
+      <c r="C214" t="s">
+        <v>37</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>39</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>37</v>
+      </c>
+      <c r="D215" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215" t="s">
+        <v>39</v>
+      </c>
+      <c r="F215" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>37</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>39</v>
+      </c>
+      <c r="F217" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
